--- a/Assets/Doc/飞机大战程序.xlsx
+++ b/Assets/Doc/飞机大战程序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28215" windowHeight="12480"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,7 +71,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -81,6 +80,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,15 +100,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,83 +141,68 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,91 +217,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,91 +379,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,20 +413,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,15 +440,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,6 +455,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,17 +498,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -727,16 +727,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>18415</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -753,7 +753,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9877425" y="495300"/>
+          <a:off x="10458450" y="1885950"/>
           <a:ext cx="4666615" cy="4666615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -812,13 +812,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
+      <xdr:colOff>256540</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
@@ -837,7 +837,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5838825" y="1209675"/>
+          <a:off x="5829300" y="1209675"/>
           <a:ext cx="4028440" cy="5781040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1232,7 +1232,7 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
@@ -1274,7 +1274,7 @@
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30:B31"/>
     </sheetView>
   </sheetViews>
